--- a/data/trans_orig/P1432-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1432-Edad-trans_orig.xlsx
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4648</v>
+        <v>4842</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001959989420651534</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009942704217784034</v>
+        <v>0.01035781529006351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5278</v>
+        <v>5106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0009529102539640795</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005488709524406554</v>
+        <v>0.005310011514263831</v>
       </c>
     </row>
     <row r="5">
@@ -819,7 +819,7 @@
         <v>466573</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462841</v>
+        <v>462647</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>467489</v>
@@ -828,7 +828,7 @@
         <v>0.9980400105793484</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.990057295782216</v>
+        <v>0.9896421847099358</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>960637</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>956275</v>
+        <v>956447</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>961553</v>
@@ -849,7 +849,7 @@
         <v>0.999047089746036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9945112904755953</v>
+        <v>0.9946899884857368</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5024</v>
+        <v>5646</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00136322367341644</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.006830680974809193</v>
+        <v>0.007676066795552806</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6023</v>
+        <v>5510</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001922601414799719</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009629356346063362</v>
+        <v>0.008809785716281252</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7946</v>
+        <v>7866</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001620308050308328</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005838165850677189</v>
+        <v>0.005779984826404315</v>
       </c>
     </row>
     <row r="8">
@@ -1015,7 +1015,7 @@
         <v>734486</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>730465</v>
+        <v>729843</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -1024,7 +1024,7 @@
         <v>0.9986367763265835</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9931693190251908</v>
+        <v>0.992323933204447</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>624291</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>619471</v>
+        <v>619984</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>625494</v>
@@ -1045,7 +1045,7 @@
         <v>0.9980773985852003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9903706436539366</v>
+        <v>0.9911902142837195</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>1358777</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1353036</v>
+        <v>1353116</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1360982</v>
@@ -1066,7 +1066,7 @@
         <v>0.9983796919496917</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9941618341493228</v>
+        <v>0.9942200151735957</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6249</v>
+        <v>6318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003252764440039611</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009784086294073482</v>
+        <v>0.009892682861650287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6719</v>
+        <v>7001</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002899658844679118</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009741385374718668</v>
+        <v>0.01014987847417153</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1203,19 +1203,19 @@
         <v>4077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9324</v>
+        <v>10029</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00306942328882282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007730053477635086</v>
+        <v>0.0007677320459990048</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007018842953051945</v>
+        <v>0.007549248004013054</v>
       </c>
     </row>
     <row r="11">
@@ -1232,7 +1232,7 @@
         <v>636591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>632419</v>
+        <v>632350</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>638668</v>
@@ -1241,7 +1241,7 @@
         <v>0.9967472355599604</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9902159137059265</v>
+        <v>0.9901073171383498</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>687744</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>683025</v>
+        <v>682743</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>689744</v>
@@ -1262,7 +1262,7 @@
         <v>0.9971003411553209</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9902586146252815</v>
+        <v>0.9898501215258285</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1274,19 +1274,19 @@
         <v>1324335</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1319088</v>
+        <v>1318383</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1327385</v>
+        <v>1327392</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9969305767111771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.992981157046948</v>
+        <v>0.9924507519959878</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9992269946522365</v>
+        <v>0.999232267954001</v>
       </c>
     </row>
     <row r="12">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6310</v>
+        <v>5986</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003502209466212049</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01215508033900764</v>
+        <v>0.01152954174785016</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1399,19 +1399,19 @@
         <v>4067</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10440</v>
+        <v>10185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007886863644445881</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002218251814296773</v>
+        <v>0.002209827393104727</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02024696036546783</v>
+        <v>0.01975262972820354</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1420,19 +1420,19 @@
         <v>5885</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2057</v>
+        <v>2777</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12354</v>
+        <v>13273</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00568711067247027</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001987560832619241</v>
+        <v>0.002683869000938733</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01193904821955828</v>
+        <v>0.01282661467895799</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1449,7 @@
         <v>517329</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>512837</v>
+        <v>513161</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>519147</v>
@@ -1458,7 +1458,7 @@
         <v>0.996497790533788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.987844919660992</v>
+        <v>0.9884704582521507</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1470,19 +1470,19 @@
         <v>511575</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>505202</v>
+        <v>505457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>514498</v>
+        <v>514503</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9921131363555541</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9797530396345321</v>
+        <v>0.9802473702717964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9977817481857032</v>
+        <v>0.9977901726068953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>980</v>
@@ -1491,19 +1491,19 @@
         <v>1028904</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1022435</v>
+        <v>1021516</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1032732</v>
+        <v>1032012</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9943128893275297</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9880609517804412</v>
+        <v>0.9871733853210418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9980124391673807</v>
+        <v>0.9973161309990611</v>
       </c>
     </row>
     <row r="15">
@@ -1595,19 +1595,19 @@
         <v>4451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1713</v>
+        <v>1642</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9971</v>
+        <v>9986</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01150919412857245</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00442875112270467</v>
+        <v>0.004245540157051314</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02578387288777255</v>
+        <v>0.02582172169724068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -1616,19 +1616,19 @@
         <v>9341</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4193</v>
+        <v>4378</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16991</v>
+        <v>17365</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02312317696470221</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01037995147229885</v>
+        <v>0.01083774951630715</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04205866724171469</v>
+        <v>0.04298372280484704</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1637,19 +1637,19 @@
         <v>13792</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8328</v>
+        <v>7452</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23359</v>
+        <v>22346</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01744306269741449</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0105330453690842</v>
+        <v>0.009424070155029274</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02954259605946232</v>
+        <v>0.02826096483355631</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>382259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>376739</v>
+        <v>376724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>384997</v>
+        <v>385068</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9884908058714276</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.974216127112228</v>
+        <v>0.97417827830276</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9955712488772954</v>
+        <v>0.9957544598429486</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>387</v>
@@ -1687,19 +1687,19 @@
         <v>394645</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>386995</v>
+        <v>386621</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399793</v>
+        <v>399608</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9768768230352978</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9579413327582853</v>
+        <v>0.9570162771951529</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9896200485277011</v>
+        <v>0.9891622504836928</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>774</v>
@@ -1708,19 +1708,19 @@
         <v>776904</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>767337</v>
+        <v>768350</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>782368</v>
+        <v>783244</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9825569373025855</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9704574039405376</v>
+        <v>0.9717390351664434</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9894669546309157</v>
+        <v>0.9905759298449707</v>
       </c>
     </row>
     <row r="18">
@@ -1812,19 +1812,19 @@
         <v>10932</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6326</v>
+        <v>5441</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19861</v>
+        <v>18341</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03736245869881925</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02162216838240099</v>
+        <v>0.01859787883554924</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06788046258397236</v>
+        <v>0.06268625535799531</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1833,19 +1833,19 @@
         <v>11491</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6200</v>
+        <v>5823</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19729</v>
+        <v>19639</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0335079715154301</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01808069968471344</v>
+        <v>0.01697914493290421</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05752996001905158</v>
+        <v>0.0572673140349873</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -1854,19 +1854,19 @@
         <v>22423</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14149</v>
+        <v>15034</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33264</v>
+        <v>35125</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03528252266949602</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0222630034499913</v>
+        <v>0.02365672984210884</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05234117190654769</v>
+        <v>0.05527027961231559</v>
       </c>
     </row>
     <row r="20">
@@ -1883,19 +1883,19 @@
         <v>281651</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>272722</v>
+        <v>274242</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286257</v>
+        <v>287142</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9626375413011807</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9321195374160277</v>
+        <v>0.9373137446420049</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9783778316175991</v>
+        <v>0.9814021211644508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>359</v>
@@ -1904,19 +1904,19 @@
         <v>331443</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>323205</v>
+        <v>323295</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>336734</v>
+        <v>337111</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9664920284845699</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9424700399809487</v>
+        <v>0.9427326859650127</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9819193003152866</v>
+        <v>0.9830208550670957</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>651</v>
@@ -1925,19 +1925,19 @@
         <v>613094</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602253</v>
+        <v>600392</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>621368</v>
+        <v>620483</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9647174773305039</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9476588280934523</v>
+        <v>0.9447297203876845</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9777369965500089</v>
+        <v>0.9763432701578911</v>
       </c>
     </row>
     <row r="21">
@@ -2029,19 +2029,19 @@
         <v>15643</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9453</v>
+        <v>9170</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24030</v>
+        <v>24908</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07453133848667998</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04503992087530354</v>
+        <v>0.04369226713369886</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1144918250293997</v>
+        <v>0.1186771981847719</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2050,19 +2050,19 @@
         <v>21670</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13521</v>
+        <v>13697</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33088</v>
+        <v>34885</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0648994953693843</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04049467038852159</v>
+        <v>0.04101965256545556</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09909344497656622</v>
+        <v>0.104474730337388</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -2071,19 +2071,19 @@
         <v>37313</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25329</v>
+        <v>26785</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50856</v>
+        <v>51647</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06861702691676344</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04657887247032314</v>
+        <v>0.04925584521818584</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09352042579684734</v>
+        <v>0.09497630093606077</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>194240</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>185853</v>
+        <v>184975</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>200430</v>
+        <v>200713</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.92546866151332</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8855081749705996</v>
+        <v>0.881322801815228</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9549600791246965</v>
+        <v>0.956307732866301</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>271</v>
@@ -2121,19 +2121,19 @@
         <v>312238</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>300820</v>
+        <v>299023</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>320387</v>
+        <v>320211</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9351005046306157</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9009065550234338</v>
+        <v>0.8955252696626116</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9595053296114784</v>
+        <v>0.9589803474345445</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>475</v>
@@ -2142,19 +2142,19 @@
         <v>506478</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>492935</v>
+        <v>492144</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>518462</v>
+        <v>517006</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9313829730832366</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9064795742031526</v>
+        <v>0.9050236990639392</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9534211275296768</v>
+        <v>0.9507441547818141</v>
       </c>
     </row>
     <row r="24">
@@ -2246,19 +2246,19 @@
         <v>35923</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25889</v>
+        <v>25488</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49135</v>
+        <v>48735</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01096382187600987</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00790127440197994</v>
+        <v>0.007778858586261092</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01499601045264456</v>
+        <v>0.01487375644877311</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -2267,19 +2267,19 @@
         <v>50689</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38374</v>
+        <v>37361</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66313</v>
+        <v>67720</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01500018835515685</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01135581951712544</v>
+        <v>0.01105620803452549</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01962394752414813</v>
+        <v>0.02004025318614542</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -2288,19 +2288,19 @@
         <v>86612</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>67866</v>
+        <v>68483</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>104483</v>
+        <v>107007</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01301313231358784</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01019667225461175</v>
+        <v>0.0102892885069448</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01569824790564721</v>
+        <v>0.01607736825623101</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>3240620</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3227408</v>
+        <v>3227808</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3250654</v>
+        <v>3251055</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9890361781239901</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9850039895473557</v>
+        <v>0.9851262435512269</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9920987255980203</v>
+        <v>0.992221141413739</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3249</v>
@@ -2338,19 +2338,19 @@
         <v>3328508</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3312884</v>
+        <v>3311477</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3340823</v>
+        <v>3341836</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9849998116448432</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9803760524758519</v>
+        <v>0.9799597468138548</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9886441804828746</v>
+        <v>0.9889437919654746</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6426</v>
@@ -2359,19 +2359,19 @@
         <v>6569129</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6551258</v>
+        <v>6548734</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6587875</v>
+        <v>6587258</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9869868676864122</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9843017520943528</v>
+        <v>0.9839226317437689</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9898033277453883</v>
+        <v>0.9897107114930551</v>
       </c>
     </row>
     <row r="27">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6254</v>
+        <v>7209</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003019866866401181</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009172363379558011</v>
+        <v>0.01057181619406077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7513</v>
+        <v>6807</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002656983373496519</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01058817815029958</v>
+        <v>0.00959325452673577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -3086,19 +3086,19 @@
         <v>3944</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9827</v>
+        <v>9105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002834811560005992</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007346797388784997</v>
+        <v>0.000737746195890522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007062418224264853</v>
+        <v>0.006543843290462301</v>
       </c>
     </row>
     <row r="11">
@@ -3115,7 +3115,7 @@
         <v>679804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>675609</v>
+        <v>674654</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>681863</v>
@@ -3124,7 +3124,7 @@
         <v>0.9969801331335988</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9908276366204419</v>
+        <v>0.9894281838059394</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>707689</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702061</v>
+        <v>702767</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>709574</v>
@@ -3145,7 +3145,7 @@
         <v>0.9973430166265035</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9894118218497004</v>
+        <v>0.990406745473264</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3157,19 +3157,19 @@
         <v>1387493</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1381610</v>
+        <v>1382332</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1390415</v>
+        <v>1390410</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.997165188439994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.992937581775735</v>
+        <v>0.9934561567095382</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9992653202611216</v>
+        <v>0.9992622538041095</v>
       </c>
     </row>
     <row r="12">
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6630</v>
+        <v>6089</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00329805489265611</v>
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01078715804863836</v>
+        <v>0.009907362778646185</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3282,19 +3282,19 @@
         <v>3153</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8332</v>
+        <v>9825</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005133561484052252</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001577688427193204</v>
+        <v>0.001580228080691767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01356391938590232</v>
+        <v>0.01599447651175246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -3303,19 +3303,19 @@
         <v>5180</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11064</v>
+        <v>11635</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004215544688911713</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001625640149062546</v>
+        <v>0.001635239022192364</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009003292032634221</v>
+        <v>0.00946805289127761</v>
       </c>
     </row>
     <row r="14">
@@ -3332,7 +3332,7 @@
         <v>612590</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>607987</v>
+        <v>608528</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>614617</v>
@@ -3341,7 +3341,7 @@
         <v>0.9967019451073439</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9892128419513612</v>
+        <v>0.9900926372213538</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3353,19 +3353,19 @@
         <v>611111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>605932</v>
+        <v>604439</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>613295</v>
+        <v>613293</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9948664385159477</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9864360806140976</v>
+        <v>0.9840055234882469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9984223115728068</v>
+        <v>0.9984197719193082</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1081</v>
@@ -3374,19 +3374,19 @@
         <v>1223700</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1217816</v>
+        <v>1217245</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1226882</v>
+        <v>1226870</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9957844553110883</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9909967079673668</v>
+        <v>0.9905319471087224</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9983743598509375</v>
+        <v>0.9983647609778076</v>
       </c>
     </row>
     <row r="15">
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6413</v>
+        <v>7285</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004839876286519249</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01493375594644353</v>
+        <v>0.01696348103890688</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3499,19 +3499,19 @@
         <v>10337</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5121</v>
+        <v>5182</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18232</v>
+        <v>18089</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02308321980616083</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01143585741145162</v>
+        <v>0.01157195578461246</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0407154521437138</v>
+        <v>0.04039470719098926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3520,19 +3520,19 @@
         <v>12415</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7152</v>
+        <v>6910</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22283</v>
+        <v>20903</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01415257312909099</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008153269776347684</v>
+        <v>0.007877601232963221</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02540156034302502</v>
+        <v>0.0238287010132211</v>
       </c>
     </row>
     <row r="17">
@@ -3549,7 +3549,7 @@
         <v>427351</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>423016</v>
+        <v>422144</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>429429</v>
@@ -3558,7 +3558,7 @@
         <v>0.9951601237134807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9850662440535576</v>
+        <v>0.983036518961093</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3570,19 +3570,19 @@
         <v>437463</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>429568</v>
+        <v>429711</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>442679</v>
+        <v>442618</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9769167801938392</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9592845478562861</v>
+        <v>0.9596052928090107</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9885641425885483</v>
+        <v>0.9884280442153875</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>787</v>
@@ -3591,19 +3591,19 @@
         <v>864814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>854946</v>
+        <v>856326</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>870077</v>
+        <v>870319</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.985847426870909</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9745984396569746</v>
+        <v>0.9761712989867788</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9918467302236523</v>
+        <v>0.9921223987670363</v>
       </c>
     </row>
     <row r="18">
@@ -3695,19 +3695,19 @@
         <v>11494</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5437</v>
+        <v>5393</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22327</v>
+        <v>20770</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03710143531079413</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0175493833752015</v>
+        <v>0.01740834877841468</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07207334984575373</v>
+        <v>0.0670462010905935</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -3716,19 +3716,19 @@
         <v>9855</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4083</v>
+        <v>4098</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18868</v>
+        <v>17889</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02784029490567078</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01153341972451632</v>
+        <v>0.01157518630566984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05329986133407834</v>
+        <v>0.05053430343228887</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -3737,19 +3737,19 @@
         <v>21349</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13033</v>
+        <v>12717</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34522</v>
+        <v>34375</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03216245570836758</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01963475885132984</v>
+        <v>0.01915884243466347</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05200770388844559</v>
+        <v>0.05178720004393867</v>
       </c>
     </row>
     <row r="20">
@@ -3766,19 +3766,19 @@
         <v>298292</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>287459</v>
+        <v>289016</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>304349</v>
+        <v>304393</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9628985646892059</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9279266501542467</v>
+        <v>0.932953798909407</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9824506166247986</v>
+        <v>0.9825916512215853</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>335</v>
@@ -3787,19 +3787,19 @@
         <v>344141</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>335128</v>
+        <v>336107</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>349913</v>
+        <v>349898</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9721597050943293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9467001386659216</v>
+        <v>0.9494656965677111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9884665802754837</v>
+        <v>0.9884248136943302</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>608</v>
@@ -3808,19 +3808,19 @@
         <v>642433</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>629260</v>
+        <v>629407</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>650749</v>
+        <v>651065</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9678375442916324</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9479922961115543</v>
+        <v>0.9482127999560612</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9803652411486701</v>
+        <v>0.9808411575653365</v>
       </c>
     </row>
     <row r="21">
@@ -3912,19 +3912,19 @@
         <v>4999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1919</v>
+        <v>1818</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11081</v>
+        <v>10955</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02000839831095604</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007680905818847411</v>
+        <v>0.007275607744462191</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04434862781858773</v>
+        <v>0.04384571597092391</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -3933,19 +3933,19 @@
         <v>32661</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22156</v>
+        <v>22753</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45530</v>
+        <v>46027</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08420546297053801</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05712202389121652</v>
+        <v>0.05866040911671967</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1173847574632725</v>
+        <v>0.1186659193828521</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -3954,19 +3954,19 @@
         <v>37660</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27243</v>
+        <v>27102</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52208</v>
+        <v>51620</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05905389208552377</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04271893512952222</v>
+        <v>0.04249898186634506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08186690099790273</v>
+        <v>0.08094409743072928</v>
       </c>
     </row>
     <row r="23">
@@ -3983,19 +3983,19 @@
         <v>244852</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>238770</v>
+        <v>238896</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247932</v>
+        <v>248033</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.979991601689044</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9556513721814117</v>
+        <v>0.9561542840290752</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9923190941811526</v>
+        <v>0.9927243922555378</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>320</v>
@@ -4004,19 +4004,19 @@
         <v>355209</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>342340</v>
+        <v>341843</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>365714</v>
+        <v>365117</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.915794537029462</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8826152425367279</v>
+        <v>0.8813340806171475</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9428779761087837</v>
+        <v>0.9413395908832801</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>537</v>
@@ -4025,19 +4025,19 @@
         <v>600061</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>585513</v>
+        <v>586101</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>610478</v>
+        <v>610619</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9409461079144762</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9181330990020971</v>
+        <v>0.9190559025692707</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9572810648704778</v>
+        <v>0.9575010181336548</v>
       </c>
     </row>
     <row r="24">
@@ -4129,19 +4129,19 @@
         <v>22657</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14295</v>
+        <v>13582</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35810</v>
+        <v>35006</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006611802623672383</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004171528639609179</v>
+        <v>0.003963433618179132</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01045004622711928</v>
+        <v>0.01021529970257599</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -4150,19 +4150,19 @@
         <v>57892</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44654</v>
+        <v>44627</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75001</v>
+        <v>78605</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01628916155515609</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01256436411250381</v>
+        <v>0.01255686203642089</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02110338031769656</v>
+        <v>0.02211740285126669</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -4171,19 +4171,19 @@
         <v>80549</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61870</v>
+        <v>63574</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>101072</v>
+        <v>101118</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01153865764904223</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008862921858948937</v>
+        <v>0.009107068813574579</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01447867572649579</v>
+        <v>0.01448518908091208</v>
       </c>
     </row>
     <row r="26">
@@ -4200,19 +4200,19 @@
         <v>3404122</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3390969</v>
+        <v>3391773</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3412484</v>
+        <v>3413197</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9933881973763277</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9895499537728808</v>
+        <v>0.9897847002974248</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9958284713603909</v>
+        <v>0.9960365663818209</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3242</v>
@@ -4221,19 +4221,19 @@
         <v>3496098</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3478989</v>
+        <v>3475385</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3509336</v>
+        <v>3509363</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9837108384448439</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9788966196823036</v>
+        <v>0.9778825971487334</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9874356358874963</v>
+        <v>0.9874431379635791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6431</v>
@@ -4242,19 +4242,19 @@
         <v>6900220</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6879697</v>
+        <v>6879651</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6918899</v>
+        <v>6917195</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9884613423509577</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9855213242735041</v>
+        <v>0.9855148109190879</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.991137078141051</v>
+        <v>0.9908929311864254</v>
       </c>
     </row>
     <row r="27">
@@ -4940,19 +4940,19 @@
         <v>2898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7683</v>
+        <v>8354</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004381165028830174</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001329304225732944</v>
+        <v>0.001323304903935022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01161706625387693</v>
+        <v>0.0126305211318996</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -4961,19 +4961,19 @@
         <v>2898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7616</v>
+        <v>7411</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002177887656958757</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0006602855440423711</v>
+        <v>0.0006580202078759044</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005724244736381331</v>
+        <v>0.005570264300148581</v>
       </c>
     </row>
     <row r="11">
@@ -5003,19 +5003,19 @@
         <v>658488</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653703</v>
+        <v>653032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660507</v>
+        <v>660511</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9956188349711699</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9883829337461232</v>
+        <v>0.9873694788681019</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.998670695774267</v>
+        <v>0.9986766950960649</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1300</v>
@@ -5024,19 +5024,19 @@
         <v>1327585</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1322867</v>
+        <v>1323072</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1329605</v>
+        <v>1329608</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9978221123430412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9942757552636187</v>
+        <v>0.9944297356998517</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9993397144559576</v>
+        <v>0.999341979792124</v>
       </c>
     </row>
     <row r="12">
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4750</v>
+        <v>6226</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001465240758745526</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007352993466832583</v>
+        <v>0.009637302194220179</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -5149,19 +5149,19 @@
         <v>4085</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9292</v>
+        <v>9282</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006293435113537609</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00159437453470107</v>
+        <v>0.001577048262136388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01431547415555039</v>
+        <v>0.01429963083107123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -5170,19 +5170,19 @@
         <v>5032</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1983</v>
+        <v>1971</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11199</v>
+        <v>11268</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003884983284632381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001531030896814747</v>
+        <v>0.001522074695256504</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.008647106186684839</v>
+        <v>0.008700148773897833</v>
       </c>
     </row>
     <row r="14">
@@ -5199,7 +5199,7 @@
         <v>645101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>641298</v>
+        <v>639822</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>646048</v>
@@ -5208,7 +5208,7 @@
         <v>0.9985347592412545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9926470065331674</v>
+        <v>0.9903626978057778</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5220,19 +5220,19 @@
         <v>644992</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>639785</v>
+        <v>639795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>648042</v>
+        <v>648053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9937065648864624</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9856845258444497</v>
+        <v>0.9857003691689288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.998405625465299</v>
+        <v>0.9984229517378636</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1179</v>
@@ -5241,19 +5241,19 @@
         <v>1290093</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1283926</v>
+        <v>1283857</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1293142</v>
+        <v>1293154</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9961150167153676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.991352893813315</v>
+        <v>0.9912998512261022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9984689691031853</v>
+        <v>0.9984779253047436</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5764</v>
+        <v>5684</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002380812977925899</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0120614545775912</v>
+        <v>0.01189424752187483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -5366,19 +5366,19 @@
         <v>9092</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3621</v>
+        <v>4356</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16719</v>
+        <v>16871</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01829937066485254</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007287543239494642</v>
+        <v>0.008767937050075818</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03364929342745136</v>
+        <v>0.03395620528651826</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -5387,19 +5387,19 @@
         <v>10230</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4532</v>
+        <v>5499</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19250</v>
+        <v>19129</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01049466940865824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004649536097107885</v>
+        <v>0.005641272718320718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01974836084356137</v>
+        <v>0.01962421249207892</v>
       </c>
     </row>
     <row r="17">
@@ -5416,7 +5416,7 @@
         <v>476780</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>472154</v>
+        <v>472234</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>477918</v>
@@ -5425,7 +5425,7 @@
         <v>0.9976191870220741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9879385454224088</v>
+        <v>0.9881057524781252</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5437,19 +5437,19 @@
         <v>487757</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>480130</v>
+        <v>479978</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>493228</v>
+        <v>492493</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9817006293351475</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9663507065725493</v>
+        <v>0.9660437947134815</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9927124567605055</v>
+        <v>0.9912320629499242</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>848</v>
@@ -5458,19 +5458,19 @@
         <v>964537</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>955517</v>
+        <v>955638</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>970235</v>
+        <v>969268</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9895053305913417</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9802516391564385</v>
+        <v>0.9803757875079209</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9953504639028921</v>
+        <v>0.9943587272816793</v>
       </c>
     </row>
     <row r="18">
@@ -5562,19 +5562,19 @@
         <v>2890</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7724</v>
+        <v>8687</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008643077623886776</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0028075097335108</v>
+        <v>0.002819437101669907</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02310261507538399</v>
+        <v>0.02598227476892066</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -5583,19 +5583,19 @@
         <v>8959</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4713</v>
+        <v>3970</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16784</v>
+        <v>15903</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02371536454146729</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01247515906369602</v>
+        <v>0.01050842128938196</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04442934113276451</v>
+        <v>0.04209848050520729</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -5604,19 +5604,19 @@
         <v>11848</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6020</v>
+        <v>6767</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20593</v>
+        <v>20298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01663886647785949</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008453622489779929</v>
+        <v>0.009503672579493128</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02891966570613465</v>
+        <v>0.02850469676136732</v>
       </c>
     </row>
     <row r="20">
@@ -5633,19 +5633,19 @@
         <v>331440</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>326606</v>
+        <v>325643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>333391</v>
+        <v>333387</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9913569223761132</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.976897384924616</v>
+        <v>0.9740177252310794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9971924902664892</v>
+        <v>0.99718056289833</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>345</v>
@@ -5654,19 +5654,19 @@
         <v>368803</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>360978</v>
+        <v>361859</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>373049</v>
+        <v>373792</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9762846354585327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9555706588672355</v>
+        <v>0.9579015194947927</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9875248409363042</v>
+        <v>0.9894915787106181</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>667</v>
@@ -5675,19 +5675,19 @@
         <v>700244</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>691499</v>
+        <v>691794</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>706072</v>
+        <v>705325</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9833611335221405</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.971080334293865</v>
+        <v>0.9714953032386335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.99154637751022</v>
+        <v>0.9904963274205069</v>
       </c>
     </row>
     <row r="21">
@@ -5779,19 +5779,19 @@
         <v>12542</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6729</v>
+        <v>6794</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20527</v>
+        <v>20032</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04880164771750715</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0261823471473284</v>
+        <v>0.02643526849263101</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07987315138783871</v>
+        <v>0.0779466952008302</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -5800,19 +5800,19 @@
         <v>26236</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17101</v>
+        <v>17440</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39110</v>
+        <v>40891</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06556277470630445</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04273541724170386</v>
+        <v>0.0435821768927398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09773427238338296</v>
+        <v>0.1021844980228631</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>34</v>
@@ -5821,19 +5821,19 @@
         <v>38778</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27888</v>
+        <v>27952</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54246</v>
+        <v>54607</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05900800837070211</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04243718360249533</v>
+        <v>0.04253357546249839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08254485656291664</v>
+        <v>0.08309436765244746</v>
       </c>
     </row>
     <row r="23">
@@ -5850,19 +5850,19 @@
         <v>244456</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>236471</v>
+        <v>236966</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250269</v>
+        <v>250204</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9511983522824928</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9201268486121613</v>
+        <v>0.9220533047991698</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9738176528526716</v>
+        <v>0.973564731507369</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>281</v>
@@ -5871,19 +5871,19 @@
         <v>373933</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>361059</v>
+        <v>359278</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>383068</v>
+        <v>382729</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9344372252936956</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9022657276166171</v>
+        <v>0.8978155019771369</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9572645827582963</v>
+        <v>0.9564178231072601</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>569</v>
@@ -5892,19 +5892,19 @@
         <v>618389</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>602921</v>
+        <v>602560</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>629279</v>
+        <v>629215</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9409919916292979</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9174551434370833</v>
+        <v>0.9169056323475524</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9575628163975046</v>
+        <v>0.9574664245375015</v>
       </c>
     </row>
     <row r="24">
@@ -5996,19 +5996,19 @@
         <v>17516</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11249</v>
+        <v>10491</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27674</v>
+        <v>27523</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005160344107166851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003313949028394946</v>
+        <v>0.003090804098487121</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.008152979362129073</v>
+        <v>0.008108381856723079</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -6017,19 +6017,19 @@
         <v>51270</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37237</v>
+        <v>38468</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68316</v>
+        <v>69429</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01446436339241521</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01050554548161705</v>
+        <v>0.01085280345606824</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01927348825151559</v>
+        <v>0.01958768386774908</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -6038,19 +6038,19 @@
         <v>68786</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53790</v>
+        <v>53208</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>88645</v>
+        <v>86376</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009913046050064564</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007751999497048452</v>
+        <v>0.007668092941202856</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0127750601052864</v>
+        <v>0.01244811168646032</v>
       </c>
     </row>
     <row r="26">
@@ -6067,19 +6067,19 @@
         <v>3376834</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3366676</v>
+        <v>3366827</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3383101</v>
+        <v>3383859</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9948396558928332</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9918470206378708</v>
+        <v>0.9918916181432769</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9966860509716048</v>
+        <v>0.9969091959015128</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3294</v>
@@ -6088,19 +6088,19 @@
         <v>3493272</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3476226</v>
+        <v>3475113</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3507305</v>
+        <v>3506074</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9855356366075848</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9807265117484849</v>
+        <v>0.9804123161322508</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9894944545183831</v>
+        <v>0.9891471965439317</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6506</v>
@@ -6109,19 +6109,19 @@
         <v>6870106</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6850247</v>
+        <v>6852516</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6885102</v>
+        <v>6885684</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9900869539499354</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9872249398947135</v>
+        <v>0.9875518883135397</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9922480005029515</v>
+        <v>0.9923319070587971</v>
       </c>
     </row>
     <row r="27">
